--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxna1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95580443025989</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H2">
-        <v>2.95580443025989</v>
+        <v>73.337278</v>
       </c>
       <c r="I2">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J2">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.31447660444818</v>
+        <v>5.635297666666666</v>
       </c>
       <c r="N2">
-        <v>5.31447660444818</v>
+        <v>16.905893</v>
       </c>
       <c r="O2">
-        <v>0.08988023920068024</v>
+        <v>0.09323918274550408</v>
       </c>
       <c r="P2">
-        <v>0.08988023920068024</v>
+        <v>0.09323918274550407</v>
       </c>
       <c r="Q2">
-        <v>15.70855349194047</v>
+        <v>137.7591305310282</v>
       </c>
       <c r="R2">
-        <v>15.70855349194047</v>
+        <v>1239.832174779254</v>
       </c>
       <c r="S2">
-        <v>0.007204085852417677</v>
+        <v>0.03761317371193971</v>
       </c>
       <c r="T2">
-        <v>0.007204085852417677</v>
+        <v>0.03761317371193969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.95580443025989</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H3">
-        <v>2.95580443025989</v>
+        <v>73.337278</v>
       </c>
       <c r="I3">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J3">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.527586828979</v>
+        <v>18.53178066666667</v>
       </c>
       <c r="N3">
-        <v>18.527586828979</v>
+        <v>55.595342</v>
       </c>
       <c r="O3">
-        <v>0.3133448615817013</v>
+        <v>0.3066187779927862</v>
       </c>
       <c r="P3">
-        <v>0.3133448615817013</v>
+        <v>0.3066187779927861</v>
       </c>
       <c r="Q3">
-        <v>54.76392323112092</v>
+        <v>453.0234501954528</v>
       </c>
       <c r="R3">
-        <v>54.76392323112092</v>
+        <v>4077.211051759076</v>
       </c>
       <c r="S3">
-        <v>0.02511523449785641</v>
+        <v>0.1236916178412283</v>
       </c>
       <c r="T3">
-        <v>0.02511523449785641</v>
+        <v>0.1236916178412283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.95580443025989</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H4">
-        <v>2.95580443025989</v>
+        <v>73.337278</v>
       </c>
       <c r="I4">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J4">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.9631891033672</v>
+        <v>14.77436233333333</v>
       </c>
       <c r="N4">
-        <v>13.9631891033672</v>
+        <v>44.323087</v>
       </c>
       <c r="O4">
-        <v>0.2361502119634015</v>
+        <v>0.2444501694549869</v>
       </c>
       <c r="P4">
-        <v>0.2361502119634015</v>
+        <v>0.2444501694549868</v>
       </c>
       <c r="Q4">
-        <v>41.27245621228939</v>
+        <v>361.1705059041317</v>
       </c>
       <c r="R4">
-        <v>41.27245621228939</v>
+        <v>3250.534553137186</v>
       </c>
       <c r="S4">
-        <v>0.01892792471604927</v>
+        <v>0.09861247618096344</v>
       </c>
       <c r="T4">
-        <v>0.01892792471604927</v>
+        <v>0.0986124761809634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.95580443025989</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H5">
-        <v>2.95580443025989</v>
+        <v>73.337278</v>
       </c>
       <c r="I5">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J5">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.323168256371</v>
+        <v>21.497717</v>
       </c>
       <c r="N5">
-        <v>21.323168256371</v>
+        <v>64.493151</v>
       </c>
       <c r="O5">
-        <v>0.3606246872542169</v>
+        <v>0.355691869806723</v>
       </c>
       <c r="P5">
-        <v>0.3606246872542169</v>
+        <v>0.3556918698067229</v>
       </c>
       <c r="Q5">
-        <v>63.02711519935846</v>
+        <v>525.5280159981086</v>
       </c>
       <c r="R5">
-        <v>63.02711519935846</v>
+        <v>4729.752143982978</v>
       </c>
       <c r="S5">
-        <v>0.02890480967323673</v>
+        <v>0.1434879596004398</v>
       </c>
       <c r="T5">
-        <v>0.02890480967323673</v>
+        <v>0.1434879596004398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.0251359173134</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H6">
-        <v>14.0251359173134</v>
+        <v>42.86704</v>
       </c>
       <c r="I6">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="J6">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.31447660444818</v>
+        <v>5.635297666666666</v>
       </c>
       <c r="N6">
-        <v>5.31447660444818</v>
+        <v>16.905893</v>
       </c>
       <c r="O6">
-        <v>0.08988023920068024</v>
+        <v>0.09323918274550408</v>
       </c>
       <c r="P6">
-        <v>0.08988023920068024</v>
+        <v>0.09323918274550407</v>
       </c>
       <c r="Q6">
-        <v>74.53625670676793</v>
+        <v>80.52284349630223</v>
       </c>
       <c r="R6">
-        <v>74.53625670676793</v>
+        <v>724.70559146672</v>
       </c>
       <c r="S6">
-        <v>0.03418300690187025</v>
+        <v>0.02198561858318041</v>
       </c>
       <c r="T6">
-        <v>0.03418300690187025</v>
+        <v>0.02198561858318041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.0251359173134</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H7">
-        <v>14.0251359173134</v>
+        <v>42.86704</v>
       </c>
       <c r="I7">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="J7">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.527586828979</v>
+        <v>18.53178066666667</v>
       </c>
       <c r="N7">
-        <v>18.527586828979</v>
+        <v>55.595342</v>
       </c>
       <c r="O7">
-        <v>0.3133448615817013</v>
+        <v>0.3066187779927862</v>
       </c>
       <c r="P7">
-        <v>0.3133448615817013</v>
+        <v>0.3066187779927861</v>
       </c>
       <c r="Q7">
-        <v>259.8519234962561</v>
+        <v>264.8008610364089</v>
       </c>
       <c r="R7">
-        <v>259.8519234962561</v>
+        <v>2383.20774932768</v>
       </c>
       <c r="S7">
-        <v>0.1191704612867987</v>
+        <v>0.07230011358840792</v>
       </c>
       <c r="T7">
-        <v>0.1191704612867987</v>
+        <v>0.0723001135884079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.0251359173134</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H8">
-        <v>14.0251359173134</v>
+        <v>42.86704</v>
       </c>
       <c r="I8">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="J8">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.9631891033672</v>
+        <v>14.77436233333333</v>
       </c>
       <c r="N8">
-        <v>13.9631891033672</v>
+        <v>44.323087</v>
       </c>
       <c r="O8">
-        <v>0.2361502119634015</v>
+        <v>0.2444501694549869</v>
       </c>
       <c r="P8">
-        <v>0.2361502119634015</v>
+        <v>0.2444501694549868</v>
       </c>
       <c r="Q8">
-        <v>195.8356250138744</v>
+        <v>211.1110603724978</v>
       </c>
       <c r="R8">
-        <v>195.8356250138744</v>
+        <v>1899.99954335248</v>
       </c>
       <c r="S8">
-        <v>0.08981200314119749</v>
+        <v>0.05764087618507476</v>
       </c>
       <c r="T8">
-        <v>0.08981200314119749</v>
+        <v>0.05764087618507475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.0251359173134</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H9">
-        <v>14.0251359173134</v>
+        <v>42.86704</v>
       </c>
       <c r="I9">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="J9">
-        <v>0.3803172666858183</v>
+        <v>0.2357980618855278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.323168256371</v>
+        <v>21.497717</v>
       </c>
       <c r="N9">
-        <v>21.323168256371</v>
+        <v>64.493151</v>
       </c>
       <c r="O9">
-        <v>0.3606246872542169</v>
+        <v>0.355691869806723</v>
       </c>
       <c r="P9">
-        <v>0.3606246872542169</v>
+        <v>0.3556918698067229</v>
       </c>
       <c r="Q9">
-        <v>299.0603329833459</v>
+        <v>307.1811648492267</v>
       </c>
       <c r="R9">
-        <v>299.0603329833459</v>
+        <v>2764.63048364304</v>
       </c>
       <c r="S9">
-        <v>0.1371517953559518</v>
+        <v>0.08387145352886477</v>
       </c>
       <c r="T9">
-        <v>0.1371517953559518</v>
+        <v>0.08387145352886476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>19.8965226178398</v>
+        <v>0.480005</v>
       </c>
       <c r="H10">
-        <v>19.8965226178398</v>
+        <v>1.440015</v>
       </c>
       <c r="I10">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999337</v>
       </c>
       <c r="J10">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999336</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.31447660444818</v>
+        <v>5.635297666666666</v>
       </c>
       <c r="N10">
-        <v>5.31447660444818</v>
+        <v>16.905893</v>
       </c>
       <c r="O10">
-        <v>0.08988023920068024</v>
+        <v>0.09323918274550408</v>
       </c>
       <c r="P10">
-        <v>0.08988023920068024</v>
+        <v>0.09323918274550407</v>
       </c>
       <c r="Q10">
-        <v>105.7396039623837</v>
+        <v>2.704971056488333</v>
       </c>
       <c r="R10">
-        <v>105.7396039623837</v>
+        <v>24.344739508395</v>
       </c>
       <c r="S10">
-        <v>0.04849314644639231</v>
+        <v>0.0007385539226421638</v>
       </c>
       <c r="T10">
-        <v>0.04849314644639231</v>
+        <v>0.0007385539226421635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>19.8965226178398</v>
+        <v>0.480005</v>
       </c>
       <c r="H11">
-        <v>19.8965226178398</v>
+        <v>1.440015</v>
       </c>
       <c r="I11">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999337</v>
       </c>
       <c r="J11">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999336</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.527586828979</v>
+        <v>18.53178066666667</v>
       </c>
       <c r="N11">
-        <v>18.527586828979</v>
+        <v>55.595342</v>
       </c>
       <c r="O11">
-        <v>0.3133448615817013</v>
+        <v>0.3066187779927862</v>
       </c>
       <c r="P11">
-        <v>0.3133448615817013</v>
+        <v>0.3066187779927861</v>
       </c>
       <c r="Q11">
-        <v>368.6345503967714</v>
+        <v>8.895347378903333</v>
       </c>
       <c r="R11">
-        <v>368.6345503967714</v>
+        <v>80.05812641013</v>
       </c>
       <c r="S11">
-        <v>0.1690591657970462</v>
+        <v>0.002428748242682752</v>
       </c>
       <c r="T11">
-        <v>0.1690591657970462</v>
+        <v>0.002428748242682751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>19.8965226178398</v>
+        <v>0.480005</v>
       </c>
       <c r="H12">
-        <v>19.8965226178398</v>
+        <v>1.440015</v>
       </c>
       <c r="I12">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999337</v>
       </c>
       <c r="J12">
-        <v>0.5395306785746216</v>
+        <v>0.007921068169999336</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.9631891033672</v>
+        <v>14.77436233333333</v>
       </c>
       <c r="N12">
-        <v>13.9631891033672</v>
+        <v>44.323087</v>
       </c>
       <c r="O12">
-        <v>0.2361502119634015</v>
+        <v>0.2444501694549869</v>
       </c>
       <c r="P12">
-        <v>0.2361502119634015</v>
+        <v>0.2444501694549868</v>
       </c>
       <c r="Q12">
-        <v>277.8189078123198</v>
+        <v>7.091767791811668</v>
       </c>
       <c r="R12">
-        <v>277.8189078123198</v>
+        <v>63.825910126305</v>
       </c>
       <c r="S12">
-        <v>0.1274102841061547</v>
+        <v>0.001936306456420841</v>
       </c>
       <c r="T12">
-        <v>0.1274102841061547</v>
+        <v>0.00193630645642084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.480005</v>
+      </c>
+      <c r="H13">
+        <v>1.440015</v>
+      </c>
+      <c r="I13">
+        <v>0.007921068169999337</v>
+      </c>
+      <c r="J13">
+        <v>0.007921068169999336</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.497717</v>
+      </c>
+      <c r="N13">
+        <v>64.493151</v>
+      </c>
+      <c r="O13">
+        <v>0.355691869806723</v>
+      </c>
+      <c r="P13">
+        <v>0.3556918698067229</v>
+      </c>
+      <c r="Q13">
+        <v>10.319011648585</v>
+      </c>
+      <c r="R13">
+        <v>92.87110483726499</v>
+      </c>
+      <c r="S13">
+        <v>0.002817459548253581</v>
+      </c>
+      <c r="T13">
+        <v>0.002817459548253581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H14">
+        <v>64.151224</v>
+      </c>
+      <c r="I14">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J14">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.635297666666666</v>
+      </c>
+      <c r="N14">
+        <v>16.905893</v>
+      </c>
+      <c r="O14">
+        <v>0.09323918274550408</v>
+      </c>
+      <c r="P14">
+        <v>0.09323918274550407</v>
+      </c>
+      <c r="Q14">
+        <v>120.5037476403369</v>
+      </c>
+      <c r="R14">
+        <v>1084.533728763032</v>
+      </c>
+      <c r="S14">
+        <v>0.03290183652774181</v>
+      </c>
+      <c r="T14">
+        <v>0.0329018365277418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H15">
+        <v>64.151224</v>
+      </c>
+      <c r="I15">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J15">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.53178066666667</v>
+      </c>
+      <c r="N15">
+        <v>55.595342</v>
+      </c>
+      <c r="O15">
+        <v>0.3066187779927862</v>
+      </c>
+      <c r="P15">
+        <v>0.3066187779927861</v>
+      </c>
+      <c r="Q15">
+        <v>396.2788042220675</v>
+      </c>
+      <c r="R15">
+        <v>3566.509237998608</v>
+      </c>
+      <c r="S15">
+        <v>0.1081982983204672</v>
+      </c>
+      <c r="T15">
+        <v>0.1081982983204672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.8965226178398</v>
-      </c>
-      <c r="H13">
-        <v>19.8965226178398</v>
-      </c>
-      <c r="I13">
-        <v>0.5395306785746216</v>
-      </c>
-      <c r="J13">
-        <v>0.5395306785746216</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>21.323168256371</v>
-      </c>
-      <c r="N13">
-        <v>21.323168256371</v>
-      </c>
-      <c r="O13">
-        <v>0.3606246872542169</v>
-      </c>
-      <c r="P13">
-        <v>0.3606246872542169</v>
-      </c>
-      <c r="Q13">
-        <v>424.2568994968893</v>
-      </c>
-      <c r="R13">
-        <v>424.2568994968893</v>
-      </c>
-      <c r="S13">
-        <v>0.1945680822250283</v>
-      </c>
-      <c r="T13">
-        <v>0.1945680822250283</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H16">
+        <v>64.151224</v>
+      </c>
+      <c r="I16">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J16">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.77436233333333</v>
+      </c>
+      <c r="N16">
+        <v>44.323087</v>
+      </c>
+      <c r="O16">
+        <v>0.2444501694549869</v>
+      </c>
+      <c r="P16">
+        <v>0.2444501694549868</v>
+      </c>
+      <c r="Q16">
+        <v>315.9311425009431</v>
+      </c>
+      <c r="R16">
+        <v>2843.380282508488</v>
+      </c>
+      <c r="S16">
+        <v>0.08626051063252783</v>
+      </c>
+      <c r="T16">
+        <v>0.08626051063252782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H17">
+        <v>64.151224</v>
+      </c>
+      <c r="I17">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J17">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.497717</v>
+      </c>
+      <c r="N17">
+        <v>64.493151</v>
+      </c>
+      <c r="O17">
+        <v>0.355691869806723</v>
+      </c>
+      <c r="P17">
+        <v>0.3556918698067229</v>
+      </c>
+      <c r="Q17">
+        <v>459.7016195852026</v>
+      </c>
+      <c r="R17">
+        <v>4137.314576266824</v>
+      </c>
+      <c r="S17">
+        <v>0.1255149971291648</v>
+      </c>
+      <c r="T17">
+        <v>0.1255149971291648</v>
       </c>
     </row>
   </sheetData>
